--- a/Doc/HRMS_Test_Case.xlsx
+++ b/Doc/HRMS_Test_Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimal\Documents\MCA\Semester 4\Main Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dimal\Documents\MCA\Semester 4\MCA Main Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044EFFD-86E9-4BC8-B5A1-02F905463C29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BCC77-C322-429F-B161-51BD308E4AB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="107">
   <si>
     <t>S.No</t>
   </si>
@@ -179,6 +179,183 @@
   <si>
     <t>User click on delete without selecting
 any designation code</t>
+  </si>
+  <si>
+    <t>Create Project Page</t>
+  </si>
+  <si>
+    <t>User tries to directly click the create project button</t>
+  </si>
+  <si>
+    <t>Should show an error to fill the fields</t>
+  </si>
+  <si>
+    <t>User tries to select a past date as starting date</t>
+  </si>
+  <si>
+    <t>User should not be able to select any past dates.
+This is done by setting the mindate</t>
+  </si>
+  <si>
+    <t>User tries to select both starting and expected end date as same</t>
+  </si>
+  <si>
+    <t>User is blocked from entering the nearer dates with the starting date.
+Minimum 7 days from start date.</t>
+  </si>
+  <si>
+    <t>Project Details</t>
+  </si>
+  <si>
+    <t>User tries to update the status of some alredy completed project</t>
+  </si>
+  <si>
+    <t>User clicks on update button of a completed project</t>
+  </si>
+  <si>
+    <t>He should see back button , not update button since it is completed.</t>
+  </si>
+  <si>
+    <t>He should not be able to update the status of any 
+completed projects.It should come as greyed.</t>
+  </si>
+  <si>
+    <t>Employee Allocation</t>
+  </si>
+  <si>
+    <t>User selects a project and without selecting an employee tries to click allocate</t>
+  </si>
+  <si>
+    <t>Should promt an error like please fill out all fields</t>
+  </si>
+  <si>
+    <t>User selects TCS-MNG project and tries to allocate
+employees other than single level</t>
+  </si>
+  <si>
+    <t>Should promt an error to include only single level employees</t>
+  </si>
+  <si>
+    <t>User selects single level employees and tries to allocate to some other projects</t>
+  </si>
+  <si>
+    <t>Flash error such that single level employees can be assigned 
+to only TCS-MNG project</t>
+  </si>
+  <si>
+    <t>User tries to allocate an already allocated employee</t>
+  </si>
+  <si>
+    <t>He should get error message like employee is already allocated</t>
+  </si>
+  <si>
+    <t>User tries to allocate non HR employee to a project
+which is not having an HR</t>
+  </si>
+  <si>
+    <t>Error should flash by telling HR should be allocated first</t>
+  </si>
+  <si>
+    <t>Register Employee</t>
+  </si>
+  <si>
+    <t>User tries to submit the form without filling the required fields</t>
+  </si>
+  <si>
+    <t>Should get an error message to fill the required fields</t>
+  </si>
+  <si>
+    <t>User is prevented from selecting recent date.</t>
+  </si>
+  <si>
+    <t>User selects date of birth as current date</t>
+  </si>
+  <si>
+    <t>User enter the email id in invalid format</t>
+  </si>
+  <si>
+    <t>Error is displayed to enter correct email</t>
+  </si>
+  <si>
+    <t>Error is displayed to enter correct mobile number</t>
+  </si>
+  <si>
+    <t>User enter the mobile number in invalid format</t>
+  </si>
+  <si>
+    <t>User tries to submit without selecting the designtation</t>
+  </si>
+  <si>
+    <t>Alert to select some designation</t>
+  </si>
+  <si>
+    <t>User enter the salary with more than 2 decimal points</t>
+  </si>
+  <si>
+    <t>Should get an error to enter only 2 decimal points</t>
+  </si>
+  <si>
+    <t>Update Details</t>
+  </si>
+  <si>
+    <t>Apply for Leave</t>
+  </si>
+  <si>
+    <t>User tries to select end date less than start date</t>
+  </si>
+  <si>
+    <t>Error is displayed for invalid date range</t>
+  </si>
+  <si>
+    <t>User tries to select more number of days and not having enough leaves</t>
+  </si>
+  <si>
+    <t>Error is displayed for not enough leaves</t>
+  </si>
+  <si>
+    <t>User chose a date range more than one day and then click half day</t>
+  </si>
+  <si>
+    <t>Error that half days must be applied seperately</t>
+  </si>
+  <si>
+    <t>Leave Request</t>
+  </si>
+  <si>
+    <t>Should get an error to enter the correct employee id</t>
+  </si>
+  <si>
+    <t>User click on forward without filling employee id</t>
+  </si>
+  <si>
+    <t>User click on forward with wrong data on employee id</t>
+  </si>
+  <si>
+    <t>Upload Attendance</t>
+  </si>
+  <si>
+    <t>User tries to upload excel without selecting the date</t>
+  </si>
+  <si>
+    <t>Prompt an error to select the date</t>
+  </si>
+  <si>
+    <t>User enter wrong data in excel</t>
+  </si>
+  <si>
+    <t>Should get an error like some error occurred while processing the data</t>
+  </si>
+  <si>
+    <t>Payslip</t>
+  </si>
+  <si>
+    <t>User clicks View payslip button without selecting date</t>
+  </si>
+  <si>
+    <t>User selects a date for which payslip is not yet generated</t>
+  </si>
+  <si>
+    <t>Should get an error like payslip is not yet generated</t>
   </si>
 </sst>
 </file>
@@ -866,19 +1043,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:G15"/>
+  <dimension ref="A3:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="68.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="5"/>
@@ -920,8 +1097,12 @@
       <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.4">
@@ -937,8 +1118,12 @@
       <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.4">
@@ -954,72 +1139,727 @@
       <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>45</v>
-      </c>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="51.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
-        <v>5</v>
+    <row r="8" spans="1:7" ht="69" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="86.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C16" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="69" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>22</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>25</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
+        <v>27</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
+        <v>28</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
+        <v>29</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
+        <v>30</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
+        <v>33</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>34</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
+        <v>35</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>36</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
